--- a/v100_for_plot.xlsx
+++ b/v100_for_plot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack2015/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987F3701-1440-6F41-B28D-134006F03FBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76478A43-AAB3-9D4D-9EF1-B565640C16EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="28220" windowHeight="17540" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="460" windowWidth="28200" windowHeight="17540" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bs1" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="bs512" sheetId="5" r:id="rId13"/>
     <sheet name="bs512_fp16" sheetId="19" r:id="rId14"/>
     <sheet name="bs1024" sheetId="6" r:id="rId15"/>
-    <sheet name="bs1024 (2)" sheetId="20" r:id="rId16"/>
+    <sheet name="bs1024_fp16" sheetId="20" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1991,8 +1991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF394916-8B98-465E-A852-A3A38FA476CF}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:R1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2874,7 +2874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE02FD60-8C7A-D441-B1A6-38B365A2050E}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>

--- a/v100_for_plot.xlsx
+++ b/v100_for_plot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack2015/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76478A43-AAB3-9D4D-9EF1-B565640C16EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F7B6AA-8E7C-6247-B8EB-718C38188EDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="460" windowWidth="28200" windowHeight="17540" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="460" windowWidth="28200" windowHeight="17540" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bs1" sheetId="8" r:id="rId1"/>
@@ -1989,10 +1989,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF394916-8B98-465E-A852-A3A38FA476CF}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2279,12 +2279,6 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="J9" s="7"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2296,7 +2290,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD27"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2874,7 +2868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE02FD60-8C7A-D441-B1A6-38B365A2050E}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
